--- a/area_conversion.xlsx
+++ b/area_conversion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chula-my.sharepoint.com/personal/prasert_k_chula_ac_th/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A78AFDCD-74DA-465E-BA91-58D0A2EF8B30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6070C09-E403-4A78-854C-377EFC108C15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E24D47-3989-4E92-8419-FB416879E7B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>area</t>
   </si>
   <si>
-    <t>sq_wh</t>
-  </si>
-  <si>
     <t>sq_m</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>1600-1-2</t>
+  </si>
+  <si>
+    <t>sq_wah</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -737,19 +737,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -805,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -813,7 +813,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
